--- a/data/trans_orig/P1421-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7136EE5-0C0A-4140-A704-F1E793AF88F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1C1D28-9A35-4824-8396-D508ADB7E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{116052A6-8BF2-4BB2-AAEC-B27FBEC29961}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE3EF560-EDE3-46C8-A5A1-2DE9BE2EBACE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="319">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>2,83%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>97,17%</t>
   </si>
   <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,55 +164,55 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,751 +230,754 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>6,14%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
   </si>
   <si>
     <t>88,9%</t>
@@ -1404,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F3EE66-599C-4325-B9D7-19790D1E1D35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2A665D-F965-43C7-BECA-2E92CE1F5705}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2275,7 +2278,7 @@
         <v>6244</v>
       </c>
       <c r="N18" s="7">
-        <v>6382368</v>
+        <v>6382369</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>96</v>
@@ -2326,7 +2329,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2359,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5EFF91-363B-45AC-A852-D7C95DE6FC93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49777F1-16DD-41D8-BEC5-7FB58204FED5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2567,10 +2570,10 @@
         <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2588,13 @@
         <v>958894</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>1173</v>
@@ -2600,13 +2603,13 @@
         <v>1258436</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M6" s="7">
         <v>2067</v>
@@ -2618,10 +2621,10 @@
         <v>96</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,7 +2698,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2740,13 +2743,13 @@
         <v>23407</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H9" s="7">
         <v>79</v>
@@ -2755,13 +2758,13 @@
         <v>85216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M9" s="7">
         <v>103</v>
@@ -2770,13 +2773,13 @@
         <v>108623</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2794,13 @@
         <v>1939520</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>1554</v>
@@ -2806,7 +2809,7 @@
         <v>1669376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>131</v>
@@ -3158,7 +3161,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>177</v>
@@ -3167,13 +3170,13 @@
         <v>189757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -3182,13 +3185,13 @@
         <v>231043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,16 +3203,16 @@
         <v>3161</v>
       </c>
       <c r="D18" s="7">
-        <v>3377466</v>
+        <v>3377465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
         <v>3115</v>
@@ -3218,13 +3221,13 @@
         <v>3361263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>6276</v>
@@ -3233,13 +3236,13 @@
         <v>6738728</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3254,7 @@
         <v>3201</v>
       </c>
       <c r="D19" s="7">
-        <v>3418752</v>
+        <v>3418751</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3314,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCD9452-EBE9-4740-816B-7ACA7C8E96C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF531210-9F08-4576-AE3A-77F3986951A2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3331,7 +3334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3444,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3459,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3489,13 +3492,13 @@
         <v>15747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -3504,13 +3507,13 @@
         <v>71704</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -3519,13 +3522,13 @@
         <v>87451</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3543,13 @@
         <v>738600</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>829</v>
@@ -3650,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3665,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3728,10 +3731,10 @@
         <v>197</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3749,13 @@
         <v>2053629</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>1819</v>
@@ -3761,13 +3764,13 @@
         <v>1893026</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>3750</v>
@@ -3776,13 +3779,13 @@
         <v>3946655</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3859,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3886,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3904,13 @@
         <v>9373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3916,13 +3919,13 @@
         <v>27720</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3931,13 +3934,13 @@
         <v>37093</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,7 +3955,7 @@
         <v>537513</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>219</v>
@@ -4269,7 +4272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFFA217-74DE-469C-8803-CB360D47722F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417849CC-4D35-430E-B584-561645314F95}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4605,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4650,13 +4653,13 @@
         <v>104368</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>344</v>
@@ -4665,13 +4668,13 @@
         <v>240260</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>440</v>
@@ -4680,13 +4683,13 @@
         <v>344628</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4704,13 @@
         <v>2056716</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>2573</v>
@@ -4716,13 +4719,13 @@
         <v>2006290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>4467</v>
@@ -4731,13 +4734,13 @@
         <v>4063006</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4841,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4859,13 @@
         <v>27036</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -4871,13 +4874,13 @@
         <v>73929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -4886,13 +4889,13 @@
         <v>100964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4910,13 @@
         <v>646003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>904</v>
@@ -4922,13 +4925,13 @@
         <v>639798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1558</v>
@@ -4937,13 +4940,13 @@
         <v>1285802</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,7 +5035,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5047,7 +5050,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5065,13 @@
         <v>154405</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>614</v>
@@ -5077,13 +5080,13 @@
         <v>417729</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>768</v>
@@ -5092,13 +5095,13 @@
         <v>572135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5116,13 @@
         <v>3219179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>311</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7">
         <v>4730</v>
@@ -5128,13 +5131,13 @@
         <v>3374279</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>7936</v>
@@ -5143,13 +5146,13 @@
         <v>6593457</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1421-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1C1D28-9A35-4824-8396-D508ADB7E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5D92D4-D16A-4814-8972-2D2931D39A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE3EF560-EDE3-46C8-A5A1-2DE9BE2EBACE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0ED8B16E-E598-4487-BE4E-ECCFA7C7177F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -95,124 +95,124 @@
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,673 +230,670 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>4,23%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>87,86%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -905,76 +902,79 @@
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>89,64%</t>
   </si>
   <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>5,45%</t>
+    <t>5,4%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>96,17%</t>
@@ -983,19 +983,19 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2A665D-F965-43C7-BECA-2E92CE1F5705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0D4BEA-2917-47AB-B42D-E71FE1079034}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1836,7 +1836,7 @@
         <v>1619</v>
       </c>
       <c r="D10" s="7">
-        <v>1662112</v>
+        <v>1662113</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1887,7 +1887,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2248,7 +2248,7 @@
         <v>3136</v>
       </c>
       <c r="D18" s="7">
-        <v>3198072</v>
+        <v>3198071</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>90</v>
@@ -2299,7 +2299,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2362,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49777F1-16DD-41D8-BEC5-7FB58204FED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4531C00-DD03-4D49-A435-5646349658B7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2570,10 +2570,10 @@
         <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2588,13 @@
         <v>958894</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>1173</v>
@@ -2603,13 +2603,13 @@
         <v>1258436</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" s="7">
         <v>2067</v>
@@ -2621,10 +2621,10 @@
         <v>96</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,7 +2698,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2743,13 +2743,13 @@
         <v>23407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H9" s="7">
         <v>79</v>
@@ -2758,13 +2758,13 @@
         <v>85216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M9" s="7">
         <v>103</v>
@@ -2773,13 +2773,13 @@
         <v>108623</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2794,13 @@
         <v>1939520</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>1554</v>
@@ -2809,13 +2809,13 @@
         <v>1669376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>3385</v>
@@ -2824,13 +2824,13 @@
         <v>3608896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,7 +2904,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2949,13 @@
         <v>2131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -2964,13 +2964,13 @@
         <v>25181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -2979,13 +2979,13 @@
         <v>27312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3000,13 @@
         <v>479050</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>388</v>
@@ -3015,13 +3015,13 @@
         <v>433450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>824</v>
@@ -3030,13 +3030,13 @@
         <v>912500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3155,13 @@
         <v>41286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>177</v>
@@ -3170,13 +3170,13 @@
         <v>189757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -3185,13 +3185,13 @@
         <v>231043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,16 +3203,16 @@
         <v>3161</v>
       </c>
       <c r="D18" s="7">
-        <v>3377465</v>
+        <v>3377466</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
         <v>3115</v>
@@ -3221,13 +3221,13 @@
         <v>3361263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M18" s="7">
         <v>6276</v>
@@ -3236,13 +3236,13 @@
         <v>6738728</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,7 +3254,7 @@
         <v>3201</v>
       </c>
       <c r="D19" s="7">
-        <v>3418751</v>
+        <v>3418752</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3317,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF531210-9F08-4576-AE3A-77F3986951A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D59FDA-F850-47AA-8ED5-6F5C11EDF2D9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3334,7 +3334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3447,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         <v>15747</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -3507,13 +3507,13 @@
         <v>71704</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -3522,13 +3522,13 @@
         <v>87451</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3543,13 @@
         <v>738600</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7">
         <v>829</v>
@@ -3558,13 +3558,13 @@
         <v>922956</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7">
         <v>1575</v>
@@ -3573,13 +3573,13 @@
         <v>1661556</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3698,13 @@
         <v>22756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>89</v>
@@ -3713,13 +3713,13 @@
         <v>95274</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>110</v>
@@ -3728,13 +3728,13 @@
         <v>118030</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3749,13 @@
         <v>2053629</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>1819</v>
@@ -3764,13 +3764,13 @@
         <v>1893026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>3750</v>
@@ -3779,13 +3779,13 @@
         <v>3946655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3859,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3904,13 @@
         <v>9373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3919,13 +3919,13 @@
         <v>27720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3934,13 +3934,13 @@
         <v>37093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3955,13 @@
         <v>537513</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>500</v>
@@ -3970,13 +3970,13 @@
         <v>521420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>992</v>
@@ -3985,13 +3985,13 @@
         <v>1058933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,10 +4110,10 @@
         <v>47875</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>40</v>
@@ -4125,13 +4125,13 @@
         <v>194699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>224</v>
@@ -4140,13 +4140,13 @@
         <v>242574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4161,13 @@
         <v>3329743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H18" s="7">
         <v>3148</v>
@@ -4176,13 +4176,13 @@
         <v>3337401</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>6317</v>
@@ -4191,10 +4191,10 @@
         <v>6667144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>242</v>
@@ -4272,7 +4272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417849CC-4D35-430E-B584-561645314F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B234D1EC-DFD2-4F38-9795-8135C11F4256}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4608,7 +4608,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4623,7 +4623,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4632,13 +4632,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4653,13 @@
         <v>104368</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>344</v>
@@ -4668,13 +4668,13 @@
         <v>240260</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>440</v>
@@ -4683,13 +4683,13 @@
         <v>344628</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4704,13 @@
         <v>2056716</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>2573</v>
@@ -4719,13 +4719,13 @@
         <v>2006290</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>4467</v>
@@ -4734,13 +4734,13 @@
         <v>4063006</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4859,13 @@
         <v>27036</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -4874,13 +4874,13 @@
         <v>73929</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -4889,13 +4889,13 @@
         <v>100964</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4910,13 @@
         <v>646003</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>904</v>
@@ -4925,13 +4925,13 @@
         <v>639798</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1558</v>
@@ -4940,13 +4940,13 @@
         <v>1285802</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5035,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5044,13 +5044,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5065,13 @@
         <v>154405</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>614</v>
@@ -5080,28 +5080,28 @@
         <v>417729</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>768</v>
       </c>
       <c r="N17" s="7">
-        <v>572135</v>
+        <v>572134</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,7 +5116,7 @@
         <v>3219179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>311</v>
@@ -5143,7 +5143,7 @@
         <v>7936</v>
       </c>
       <c r="N18" s="7">
-        <v>6593457</v>
+        <v>6593456</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>316</v>
@@ -5194,7 +5194,7 @@
         <v>8706</v>
       </c>
       <c r="N19" s="7">
-        <v>7169072</v>
+        <v>7169071</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>

--- a/data/trans_orig/P1421-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37282A29-075F-4F55-A90E-F72D4CD3F502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F5CD13-7968-4379-B50E-F04C398B2523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B05D7FCF-B2CB-4876-891A-2C0D39651360}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A461EB6-B329-4941-A3ED-6D78C858EFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -710,202 +710,184 @@
     <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>92,7%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58DB369-1966-48C4-A44C-DED7895DEB3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5845502C-8C34-4C65-9A3D-1A39F1E40AA7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1501,7 @@
         <v>2227</v>
       </c>
       <c r="N5" s="7">
-        <v>2242433</v>
+        <v>2242432</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1570,7 +1552,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1644,7 +1626,7 @@
         <v>1619</v>
       </c>
       <c r="D8" s="7">
-        <v>1662112</v>
+        <v>1662113</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1695,7 +1677,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1954,7 +1936,7 @@
         <v>3136</v>
       </c>
       <c r="D14" s="7">
-        <v>3198072</v>
+        <v>3198071</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1969,7 +1951,7 @@
         <v>3108</v>
       </c>
       <c r="I14" s="7">
-        <v>3184298</v>
+        <v>3184297</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1984,7 +1966,7 @@
         <v>6244</v>
       </c>
       <c r="N14" s="7">
-        <v>6382368</v>
+        <v>6382369</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2005,7 +1987,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2020,7 +2002,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2017,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A11016-69BE-4D55-84A5-7D77156931A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E25F01A-6A49-4B3D-AFBD-DC744E34879D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2255,7 +2237,7 @@
         <v>1173</v>
       </c>
       <c r="I5" s="7">
-        <v>1258436</v>
+        <v>1258437</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>100</v>
@@ -2306,7 +2288,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2580,7 +2562,7 @@
         <v>824</v>
       </c>
       <c r="N11" s="7">
-        <v>912500</v>
+        <v>912501</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>136</v>
@@ -2631,7 +2613,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2705,7 +2687,7 @@
         <v>3161</v>
       </c>
       <c r="D14" s="7">
-        <v>3377466</v>
+        <v>3377465</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>146</v>
@@ -2756,7 +2738,7 @@
         <v>3201</v>
       </c>
       <c r="D15" s="7">
-        <v>3418752</v>
+        <v>3418751</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2819,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DFADE1-CF89-4488-AFC4-0BFA8F1557F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487BC3DC-136D-4243-A18D-C26BFBE87722}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3331,7 +3313,7 @@
         <v>992</v>
       </c>
       <c r="N11" s="7">
-        <v>1058933</v>
+        <v>1058934</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>203</v>
@@ -3382,7 +3364,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3570,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFB255C-28B5-44E0-82DD-2AAF0DED62DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BAC1EE-6D48-4529-B15D-5C7128FC3317}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3691,46 +3673,46 @@
         <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>23001</v>
+        <v>22810</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>171</v>
       </c>
       <c r="I4" s="7">
-        <v>103541</v>
+        <v>93892</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
       </c>
       <c r="N4" s="7">
-        <v>126542</v>
+        <v>116702</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,46 +3724,46 @@
         <v>658</v>
       </c>
       <c r="D5" s="7">
-        <v>516459</v>
+        <v>490076</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1253</v>
       </c>
       <c r="I5" s="7">
-        <v>728189</v>
+        <v>657942</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1911</v>
       </c>
       <c r="N5" s="7">
-        <v>1244648</v>
+        <v>1148017</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3775,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539460</v>
+        <v>512886</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3790,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831730</v>
+        <v>751834</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3823,7 +3805,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1371190</v>
+        <v>1264719</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3846,46 +3828,46 @@
         <v>96</v>
       </c>
       <c r="D7" s="7">
-        <v>104368</v>
+        <v>102468</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>344</v>
       </c>
       <c r="I7" s="7">
-        <v>240260</v>
+        <v>223419</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>440</v>
       </c>
       <c r="N7" s="7">
-        <v>344628</v>
+        <v>325887</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,46 +3879,46 @@
         <v>1894</v>
       </c>
       <c r="D8" s="7">
-        <v>2056716</v>
+        <v>2186975</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>2573</v>
       </c>
       <c r="I8" s="7">
-        <v>2006290</v>
+        <v>2011632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>4467</v>
       </c>
       <c r="N8" s="7">
-        <v>4063006</v>
+        <v>4198607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3930,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2161084</v>
+        <v>2289443</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3963,7 +3945,7 @@
         <v>2917</v>
       </c>
       <c r="I9" s="7">
-        <v>2246550</v>
+        <v>2235051</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3978,7 +3960,7 @@
         <v>4907</v>
       </c>
       <c r="N9" s="7">
-        <v>4407634</v>
+        <v>4524494</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4001,46 +3983,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>27036</v>
+        <v>26216</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
       </c>
       <c r="I10" s="7">
-        <v>73929</v>
+        <v>68224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>100964</v>
+        <v>94440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4034,13 @@
         <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>646003</v>
+        <v>620407</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>98</v>
@@ -4067,31 +4049,31 @@
         <v>904</v>
       </c>
       <c r="I11" s="7">
-        <v>639798</v>
+        <v>592079</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>1558</v>
       </c>
       <c r="N11" s="7">
-        <v>1285802</v>
+        <v>1212487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4085,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4118,7 +4100,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713727</v>
+        <v>660303</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4133,7 +4115,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386766</v>
+        <v>1306927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4156,46 +4138,46 @@
         <v>154</v>
       </c>
       <c r="D13" s="7">
-        <v>154405</v>
+        <v>151494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>614</v>
       </c>
       <c r="I13" s="7">
-        <v>417729</v>
+        <v>385535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>768</v>
       </c>
       <c r="N13" s="7">
-        <v>572135</v>
+        <v>537029</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,46 +4189,46 @@
         <v>3206</v>
       </c>
       <c r="D14" s="7">
-        <v>3219179</v>
+        <v>3297458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>4730</v>
       </c>
       <c r="I14" s="7">
-        <v>3374279</v>
+        <v>3261652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>7936</v>
       </c>
       <c r="N14" s="7">
-        <v>6593457</v>
+        <v>6559111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4240,7 @@
         <v>3360</v>
       </c>
       <c r="D15" s="7">
-        <v>3373584</v>
+        <v>3448952</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4273,7 +4255,7 @@
         <v>5344</v>
       </c>
       <c r="I15" s="7">
-        <v>3792008</v>
+        <v>3647187</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4288,7 +4270,7 @@
         <v>8704</v>
       </c>
       <c r="N15" s="7">
-        <v>7165592</v>
+        <v>7096140</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
